--- a/almacen.xlsx
+++ b/almacen.xlsx
@@ -863,10 +863,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="8">
@@ -895,10 +895,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="8">
@@ -927,10 +927,10 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="8">
@@ -959,10 +959,10 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="8">
@@ -991,10 +991,10 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="8">
@@ -1023,10 +1023,10 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="8">
@@ -1055,10 +1055,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="8">
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="8">
@@ -1119,10 +1119,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="8">
@@ -1280,10 +1280,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="8">
@@ -1312,10 +1312,10 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8">
@@ -1344,10 +1344,10 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8">
@@ -1376,10 +1376,10 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8">
@@ -1408,10 +1408,10 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8">
@@ -1440,10 +1440,10 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="8">
@@ -1472,10 +1472,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="8">
@@ -1504,10 +1504,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="8">
@@ -1536,10 +1536,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8">
@@ -1568,10 +1568,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="8">
@@ -1600,10 +1600,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8">
@@ -1632,10 +1632,10 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="8">
@@ -1664,10 +1664,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="8">
@@ -1696,10 +1696,10 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="8">
@@ -1728,10 +1728,10 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="8">
@@ -1760,10 +1760,10 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="8">
@@ -1792,10 +1792,10 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="8">
@@ -1824,10 +1824,10 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="8">
@@ -1856,10 +1856,10 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="8">
@@ -1888,10 +1888,10 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="8">
@@ -1920,10 +1920,10 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="8">
@@ -1952,10 +1952,10 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="8">
@@ -1984,10 +1984,10 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="8">
@@ -2016,10 +2016,10 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="8">
@@ -2048,10 +2048,10 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="8">
@@ -2080,10 +2080,10 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="8">
@@ -2112,10 +2112,10 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="8">
@@ -2144,10 +2144,10 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="8">
@@ -2176,10 +2176,10 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="8">
@@ -2208,10 +2208,10 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="8">
@@ -2240,10 +2240,10 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="8">
